--- a/src/main/resources/static/upload/exceltables/新建 Microsoft Excel 工作表.xlsx
+++ b/src/main/resources/static/upload/exceltables/新建 Microsoft Excel 工作表.xlsx
@@ -19,13 +19,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
-    <t>sda</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dsa</t>
+    <t>梁卫ss</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -351,7 +347,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A2:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
@@ -362,23 +358,12 @@
     <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2">
         <v>16120211</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B2" t="s">
         <v>0</v>
-      </c>
-      <c r="C1">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>456</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1</v>
       </c>
       <c r="C2">
         <v>123</v>

--- a/src/main/resources/static/upload/exceltables/新建 Microsoft Excel 工作表.xlsx
+++ b/src/main/resources/static/upload/exceltables/新建 Microsoft Excel 工作表.xlsx
@@ -19,9 +19,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
-    <t>梁卫ss</t>
+    <t>sss</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dsa</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -65,8 +69,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -347,26 +352,37 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:C2"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="1">
+        <v>1610120005</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1">
+        <v>12</v>
+      </c>
+    </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>16120211</v>
+      <c r="A2" s="1">
+        <v>1610120045</v>
       </c>
       <c r="B2" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C2">
-        <v>123</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/static/upload/exceltables/新建 Microsoft Excel 工作表.xlsx
+++ b/src/main/resources/static/upload/exceltables/新建 Microsoft Excel 工作表.xlsx
@@ -19,13 +19,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
-    <t>sss</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dsa</t>
+    <t>梁卫ss</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -69,9 +65,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -352,37 +347,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A2:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="1">
-        <v>1610120005</v>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>16120211</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B2" t="s">
         <v>0</v>
       </c>
-      <c r="C1">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="1">
-        <v>1610120045</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
       <c r="C2">
-        <v>12</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
